--- a/Lemmas.xlsx
+++ b/Lemmas.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,12 +437,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Słowo kluczowe</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>URL</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -457,17 +457,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>depilacja laserowa</t>
+          <t>https://eim.waw.pl/blog/odwolanie-od-decyzji-ubezpieczyciela</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://nylasercenter.com.pl/oferta/depilacja-laserowa-jak-przebiega-zabieg/</t>
+          <t>odwołanie od decyzji pzu uszczerbek na zdrowiu odmowa</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>depilacja laserowy</t>
+          <t>odwołanie od decyzja pzu uszczerbek na zdrowie odmowa</t>
         </is>
       </c>
     </row>
@@ -477,17 +477,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>laserowa depilacja</t>
+          <t>https://eim.waw.pl/blog/infekcja-i-sepsa-w-ciazy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://nylasercenter.com.pl/oferta/depilacja-laserowa-jak-przebiega-zabieg/</t>
+          <t>sepsa po porodzie</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>laserowy depilacja</t>
+          <t>sepsa po poród</t>
         </is>
       </c>
     </row>
@@ -497,17 +497,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LightSheer Duet</t>
+          <t>https://eim.waw.pl/blog/wniosek-o-jednorazowe-odszkodowanie-z-zus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://nylasercenter.com.pl/oferta/lightsheer-duet-laserowe-usuwanie-owlosienia-warszawa/</t>
+          <t>jak napisać wniosek o jednorazowe odszkodowanie z zus</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>lightsheer duet</t>
+          <t>jak napisać wniosek o jednorazowy odszkodowanie z zus</t>
         </is>
       </c>
     </row>
@@ -517,17 +517,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LightSheer</t>
+          <t>https://eim.waw.pl/blog/wniosek-o-odszkodowanie-wzor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://nylasercenter.com.pl/oferta/lightsheer-duet-laserowe-usuwanie-owlosienia-warszawa/</t>
+          <t>wniosek o odszkodowanie</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>lightsheer</t>
+          <t>wniosek o odszkodowanie</t>
         </is>
       </c>
     </row>
@@ -537,17 +537,1057 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Light Sheer</t>
+          <t>https://eim.waw.pl/blog/zerwane-sciegno-achillesa-a-blad-medyczny</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://nylasercenter.com.pl/oferta/lightsheer-duet-laserowe-usuwanie-owlosienia-warszawa/</t>
+          <t>zerwane ścięgno achillesa odszkodowanie</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>light sheer</t>
+          <t>zerwać ścięgno achillesa odszkodowanie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/skarga-na-lekarza</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>skarga na lekarza wzór</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>skarga na lekarz wzór</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/odszkodowanie-za-zakazenie-gronkowcem-zlocistym-w-szpitalu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>zakażenie gronkowcem w szpitalu</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>zakażenie gronkowiec w szpital</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/odszkodowanie-za-straty-moralne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>straty moralne</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>strata moralny</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/blad-medyczny-przy-zabiegu-laparoskopii</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>brzuch po laparoskopii</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>brzucho po laparoskopia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/odszkodowanie-za-potracenie-pieszego</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>potrącenie pieszego na pasach konsekwencje</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>potrącić pieszego na pasy konsekwencja</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/zamartwica</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>zamartwica</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>zamartwica</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/nieudane-operacje-plastyczne</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nieudane operacje plastyczne</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>udany operacja plastyczny</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/mowa-koncowa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>mowa końcowa</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>mowa końcowy</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/bledy-lekarskie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>błędy lekarskie</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>błąd lekarski</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/niedotlenienie-okoloporodowe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>objawy niedotlenienia u dzieci starszych</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>objaw niedotlenienie u dziecko stary</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/sepsa-posocznica-zakazenie-w-szpitalu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sepsa w szpitalu</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>sepsa w szpital</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/przestepstwo-falszowania-dokumentacji-medycznej</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>fałszowanie dokumentacji medycznej</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>fałszowanie dokumentacja medyczny</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/zasady-i-rodzaje-odpowiedzialnosci-cywilnej</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>odpowiedzialność cywilna i jej rodzaje</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>odpowiedzialność cywilny i on rodzaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/vacuum-porod</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>poród vacuum</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>poród vacuum</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/termin-wyplaty-odszkodowania</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>termin wypłaty odszkodowania po wyroku sądowym</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>termin wypłata odszkodowanie po wyrok sądowy</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/zazalenie-na-postanowienie-o-umorzeniu-dochodzenia-lub-sledztwa</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>zażalenie na postanowienie o umorzeniu śledztwa zarzuty</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>zażalenie na postanowienie o umorzeniu śledztwo zarzut</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/wspolwina-a-odszkodowanie-z-oc</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>współwina a odszkodowanie z oc</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>współwina a odszkodowanie z oc</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/odpowiedzialnosc-pielegniarki-lub-poloznej-za-blad-medyczny</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>błąd w sztuce pielęgniarskiej</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>błąd w sztuka pielęgniarski</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/odmowa-leczenia-przez-lekarza</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>odmowa leczenia przez pacjenta</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>odmowa leczenie przez pacjent</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/rodzaje-bledow-medycznych</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>błędy medyczne przykłady</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>błąd medyczny przykład</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/wypadki-samochodowe</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>nieumyślne spowodowanie wypadku śmiertelnego</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>umyślny spowodowanie wypadek śmiertelny</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/uszczerbek-na-zdrowiu</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ile pzu płaci za 1 szew 2018</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ile pzu płacić za 1 szwa 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/blad-diagnostyczny-przy-zlamaniu-kosci-stopy</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>złamanie kości sześciennej</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>złamanie kość sześcienny</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/odszkodowanie-od-dentysty</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>jak uzyskac odszkodowanie od dentysty</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>jak uzyskac odszkodowanie od dentysta</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/odszkodowanie-po-wypadku-samochodowym-jako-pasazer</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>odszkodowanie po wypadku samochodowym jako pasazer</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>odszkodowanie po wypadek samochodowy jako pasazer</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/bledy-medyczne</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>sprawy medyczne adwokat</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>sprawa medyczny adwokat</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/zdarzenie-medyczne-a-blad-medyczny</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>zdarzenia medyczne</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>zdarzenie medyczny</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/swiadoma-zgoda-pacjenta-na-zabieg-chirurgiczny</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>zgoda pacjenta na zabieg medyczny wzór</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>zgoda pacjent na zabieg medyczny wzór</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/kapitalizacja-renty</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>kapitalizacja renty jak obliczyć</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>kapitalizacja renta jak obliczyć</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/subsydiarny-akt-oskarzenia</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>subsydiarny akt oskarżenia wzór</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>subsydiarny akta oskarżenie wzór</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/apelacja-karna</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>apelacja karna szanse</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>apelacja karny szansa</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/odszkodowanie-za-wypadek-z-dzikiem-losiem-sarna</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>zderzenie z jeleniem odszkodowanie</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>zderzenie z jeleń odszkodowanie</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/wypadki-komunikacyjne</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>wypadek komunikacyjny definicja</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>wypadek komunikacyjny definicja</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/porazenie-splotu-barkowego-i-dystocja-barkowa-u-noworodka</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>porażenie splotu barkowego u noworodka</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>porażenie splot barkowy u noworodek</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/blad-medyczny-podczas-operacji-kregoslupa</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>krwiak po operacji</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>krwiak po operacja</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/odszkodowania-powypadkowe</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>odszkodowania powypadkowe</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>odszkodowanie powypadkowy</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/ugoda-sadowa-a-ugoda-pozasadowa</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ugoda pozasądowa</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ugoda pozasądowy</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/zanizone-odszkodowanie</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>zaniżone odszkodowanie za uszczerbek na zdrowiu</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>zaniżyć odszkodowanie za uszczerbek na zdrowie</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/odszkodowanie-za-pojawienie-sie-odlezyn-u-chorego</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>czy odleżyny prowadzą do śmierci</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>czy odleżyna prowadzić do śmierć</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/encefalopatia</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>encefalopatia niedotlenieniowa</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>encefalopatia niedotlenieniowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/wypadek-na-budowie</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>zadośćuczynienie za skutki wypadku przy pracy</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>zadośćuczynienie za skutek wypadek przy praca</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/bledne-leczenie-zakazenia-ukladu-moczowego</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>zastój w nerce leczenie</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>zastać w nerka leczenie</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/odpowiedzialnosc-karna</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>odpowiedzialność karna lekarza za błąd w sztuce lekarskiej</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>odpowiedzialność karny lekarz za błąd w sztuka lekarski</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/pozew-o-odszkodowanie</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>"wzór" wniosku o odszkodowanie za błąd lekarski</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>" wzór " wniosek o odszkodowanie za błąd lekarski</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/opinia-bieglego-w-postepowaniu-przygotowawczym</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>powołanie biegłego w postępowaniu przygotowawczym</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>powołanie biegły w postępowanie przygotowawczy</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/ciaza-blizniacza-mnoga</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ciąża bliźniacza późno wykryta</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>ciąża bliźniaczy późno wykryć</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/wniosek-o-ustalenie-zdarzenia-medycznego</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>wniosek o ustalenie zdarzenia medycznego przykład</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>wniosek o ustalenie zdarzenie medyczny przykład</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/rzecznik-praw-pacjenta</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>rzecznik praw pacjenta skarga</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>rzecznik prawo pacjent skarga</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/definicja-bledu-medycznego</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>błąd medyczny definicja</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>błąd medyczny definicja</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/chwyt-kristellera</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>kristeller</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>kristeller</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/wypadki-w-rolnictwie</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>wypadki w gospodarstwie rolnym</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>wypadek w gospodarstwo rolny</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://eim.waw.pl/blog/powiklania</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>przewody luschki</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>przewód luschki</t>
         </is>
       </c>
     </row>
